--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Egf-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Egf-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.055305</v>
+        <v>0.14295</v>
       </c>
       <c r="H2">
-        <v>0.11061</v>
+        <v>0.2859</v>
       </c>
       <c r="I2">
-        <v>0.05948165296722621</v>
+        <v>0.2060161421345645</v>
       </c>
       <c r="J2">
-        <v>0.04627135150330648</v>
+        <v>0.15525926505184</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.1122635</v>
+        <v>4.138389</v>
       </c>
       <c r="N2">
-        <v>6.224527</v>
+        <v>8.276778</v>
       </c>
       <c r="O2">
-        <v>0.2822077032432218</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P2">
-        <v>0.2312074682901326</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q2">
-        <v>0.1721237328675</v>
+        <v>0.59158270755</v>
       </c>
       <c r="R2">
-        <v>0.6884949314700001</v>
+        <v>2.3663308302</v>
       </c>
       <c r="S2">
-        <v>0.01678618066899128</v>
+        <v>0.07918568081227476</v>
       </c>
       <c r="T2">
-        <v>0.01069828203544231</v>
+        <v>0.05233919726782318</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.055305</v>
+        <v>0.14295</v>
       </c>
       <c r="H3">
-        <v>0.11061</v>
+        <v>0.2859</v>
       </c>
       <c r="I3">
-        <v>0.05948165296722621</v>
+        <v>0.2060161421345645</v>
       </c>
       <c r="J3">
-        <v>0.04627135150330648</v>
+        <v>0.15525926505184</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.013819333333334</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N3">
-        <v>9.041458</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O3">
-        <v>0.2732811768830042</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P3">
-        <v>0.3358411994729184</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q3">
-        <v>0.16667927823</v>
+        <v>0.4308254736999999</v>
       </c>
       <c r="R3">
-        <v>1.00007566938</v>
+        <v>2.584952842199999</v>
       </c>
       <c r="S3">
-        <v>0.01625521612583002</v>
+        <v>0.0576676904358667</v>
       </c>
       <c r="T3">
-        <v>0.01553982619010347</v>
+        <v>0.05717474285896493</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.055305</v>
+        <v>0.14295</v>
       </c>
       <c r="H4">
-        <v>0.11061</v>
+        <v>0.2859</v>
       </c>
       <c r="I4">
-        <v>0.05948165296722621</v>
+        <v>0.2060161421345645</v>
       </c>
       <c r="J4">
-        <v>0.04627135150330648</v>
+        <v>0.15525926505184</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01648566666666667</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N4">
-        <v>0.049457</v>
+        <v>0.014572</v>
       </c>
       <c r="O4">
-        <v>0.001494854830393808</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P4">
-        <v>0.001837059708990754</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q4">
-        <v>0.0009117397949999999</v>
+        <v>0.0006943558</v>
       </c>
       <c r="R4">
-        <v>0.00547043877</v>
+        <v>0.0041661348</v>
       </c>
       <c r="S4">
-        <v>8.891643625786627E-05</v>
+        <v>9.294226495676359E-05</v>
       </c>
       <c r="T4">
-        <v>8.500323552727307E-05</v>
+        <v>9.214778777281685E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.055305</v>
+        <v>0.14295</v>
       </c>
       <c r="H5">
-        <v>0.11061</v>
+        <v>0.2859</v>
       </c>
       <c r="I5">
-        <v>0.05948165296722621</v>
+        <v>0.2060161421345645</v>
       </c>
       <c r="J5">
-        <v>0.04627135150330648</v>
+        <v>0.15525926505184</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.0507295</v>
+        <v>3.609679</v>
       </c>
       <c r="N5">
-        <v>6.101459</v>
+        <v>7.219358</v>
       </c>
       <c r="O5">
-        <v>0.2766280443193008</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P5">
-        <v>0.226636158581374</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q5">
-        <v>0.1687205949975</v>
+        <v>0.51600361305</v>
       </c>
       <c r="R5">
-        <v>0.67488237999</v>
+        <v>2.0640144522</v>
       </c>
       <c r="S5">
-        <v>0.01645429333320312</v>
+        <v>0.06906912064785865</v>
       </c>
       <c r="T5">
-        <v>0.01048676135707787</v>
+        <v>0.04565247521548088</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,108 +791,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.055305</v>
+        <v>0.14295</v>
       </c>
       <c r="H6">
-        <v>0.11061</v>
+        <v>0.2859</v>
       </c>
       <c r="I6">
-        <v>0.05948165296722621</v>
+        <v>0.2060161421345645</v>
       </c>
       <c r="J6">
-        <v>0.04627135150330648</v>
+        <v>0.15525926505184</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.763754333333333</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N6">
-        <v>5.291263</v>
+        <v>0.000111</v>
       </c>
       <c r="O6">
-        <v>0.1599302435334539</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P6">
-        <v>0.1965417649063538</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q6">
-        <v>0.09754443340499999</v>
+        <v>5.289149999999999E-06</v>
       </c>
       <c r="R6">
-        <v>0.58526660043</v>
+        <v>3.17349E-05</v>
       </c>
       <c r="S6">
-        <v>0.009512915244820881</v>
+        <v>7.079736076174003E-07</v>
       </c>
       <c r="T6">
-        <v>0.009094253089062124</v>
+        <v>7.019217981596671E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.055305</v>
+        <v>0.2475473333333333</v>
       </c>
       <c r="H7">
-        <v>0.11061</v>
+        <v>0.742642</v>
       </c>
       <c r="I7">
-        <v>0.05948165296722621</v>
+        <v>0.356759332696974</v>
       </c>
       <c r="J7">
-        <v>0.04627135150330648</v>
+        <v>0.4032950371340628</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.07122033333333333</v>
+        <v>4.138389</v>
       </c>
       <c r="N7">
-        <v>0.213661</v>
+        <v>8.276778</v>
       </c>
       <c r="O7">
-        <v>0.006457977190625621</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P7">
-        <v>0.00793634904023037</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q7">
-        <v>0.003938840535</v>
+        <v>1.024447161246</v>
       </c>
       <c r="R7">
-        <v>0.02363304321</v>
+        <v>6.146682967476</v>
       </c>
       <c r="S7">
-        <v>0.0003841311581230557</v>
+        <v>0.1371262967699414</v>
       </c>
       <c r="T7">
-        <v>0.0003672255960934284</v>
+        <v>0.1359541312954556</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>0.742642</v>
       </c>
       <c r="I8">
-        <v>0.2662421946351253</v>
+        <v>0.356759332696974</v>
       </c>
       <c r="J8">
-        <v>0.3106685563974191</v>
+        <v>0.4032950371340628</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.1122635</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N8">
-        <v>6.224527</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O8">
-        <v>0.2822077032432218</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P8">
-        <v>0.2312074682901326</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q8">
-        <v>0.7704325300556667</v>
+        <v>0.746062939115111</v>
       </c>
       <c r="R8">
-        <v>4.622595180334001</v>
+        <v>6.714566452035999</v>
       </c>
       <c r="S8">
-        <v>0.07513559825441352</v>
+        <v>0.0998634696529624</v>
       </c>
       <c r="T8">
-        <v>0.07182889040199757</v>
+        <v>0.1485147442681617</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>0.742642</v>
       </c>
       <c r="I9">
-        <v>0.2662421946351253</v>
+        <v>0.356759332696974</v>
       </c>
       <c r="J9">
-        <v>0.3106685563974191</v>
+        <v>0.4032950371340628</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.013819333333334</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N9">
-        <v>9.041458</v>
+        <v>0.014572</v>
       </c>
       <c r="O9">
-        <v>0.2732811768830042</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P9">
-        <v>0.3358411994729184</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q9">
-        <v>0.7460629391151112</v>
+        <v>0.001202419913777778</v>
       </c>
       <c r="R9">
-        <v>6.714566452036</v>
+        <v>0.010821779224</v>
       </c>
       <c r="S9">
-        <v>0.0727589802858009</v>
+        <v>0.000160948652284064</v>
       </c>
       <c r="T9">
-        <v>0.1043353006190292</v>
+        <v>0.0002393592773948242</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>0.742642</v>
       </c>
       <c r="I10">
-        <v>0.2662421946351253</v>
+        <v>0.356759332696974</v>
       </c>
       <c r="J10">
-        <v>0.3106685563974191</v>
+        <v>0.4032950371340628</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01648566666666667</v>
+        <v>3.609679</v>
       </c>
       <c r="N10">
-        <v>0.049457</v>
+        <v>7.219358</v>
       </c>
       <c r="O10">
-        <v>0.001494854830393808</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P10">
-        <v>0.001837059708990754</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q10">
-        <v>0.004080982821555556</v>
+        <v>0.8935664106393333</v>
       </c>
       <c r="R10">
-        <v>0.036728845394</v>
+        <v>5.361398463836</v>
       </c>
       <c r="S10">
-        <v>0.0003979934307049654</v>
+        <v>0.1196073916198369</v>
       </c>
       <c r="T10">
-        <v>0.0005707166878080204</v>
+        <v>0.1185849790100565</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>0.742642</v>
       </c>
       <c r="I11">
-        <v>0.2662421946351253</v>
+        <v>0.356759332696974</v>
       </c>
       <c r="J11">
-        <v>0.3106685563974191</v>
+        <v>0.4032950371340628</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>3.0507295</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N11">
-        <v>6.101459</v>
+        <v>0.000111</v>
       </c>
       <c r="O11">
-        <v>0.2766280443193008</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P11">
-        <v>0.226636158581374</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q11">
-        <v>0.7551999524463334</v>
+        <v>9.159251333333333E-06</v>
       </c>
       <c r="R11">
-        <v>4.531199714678</v>
+        <v>8.2433262E-05</v>
       </c>
       <c r="S11">
-        <v>0.07365005761719333</v>
+        <v>1.2260019491855E-06</v>
       </c>
       <c r="T11">
-        <v>0.07040872821393203</v>
+        <v>1.82328299415492E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,117 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2475473333333333</v>
+        <v>0.07505833333333334</v>
       </c>
       <c r="H12">
-        <v>0.742642</v>
+        <v>0.225175</v>
       </c>
       <c r="I12">
-        <v>0.2662421946351253</v>
+        <v>0.1081722858928543</v>
       </c>
       <c r="J12">
-        <v>0.3106685563974191</v>
+        <v>0.12228228404354</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.763754333333333</v>
+        <v>4.138389</v>
       </c>
       <c r="N12">
-        <v>5.291263</v>
+        <v>8.276778</v>
       </c>
       <c r="O12">
-        <v>0.1599302435334539</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P12">
-        <v>0.1965417649063538</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q12">
-        <v>0.4366126818717778</v>
+        <v>0.310620581025</v>
       </c>
       <c r="R12">
-        <v>3.929514136846</v>
+        <v>1.86372348615</v>
       </c>
       <c r="S12">
-        <v>0.04258017902687682</v>
+        <v>0.04157779101528267</v>
       </c>
       <c r="T12">
-        <v>0.06105934637525788</v>
+        <v>0.04122238105904893</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.07505833333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.225175</v>
+      </c>
+      <c r="I13">
+        <v>0.1081722858928543</v>
+      </c>
+      <c r="J13">
+        <v>0.12228228404354</v>
+      </c>
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.2475473333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.742642</v>
-      </c>
-      <c r="I13">
-        <v>0.2662421946351253</v>
-      </c>
-      <c r="J13">
-        <v>0.3106685563974191</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.07122033333333333</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N13">
-        <v>0.213661</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O13">
-        <v>0.006457977190625621</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P13">
-        <v>0.00793634904023037</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q13">
-        <v>0.01763040359577778</v>
+        <v>0.2262122561277778</v>
       </c>
       <c r="R13">
-        <v>0.158673632362</v>
+        <v>2.03591030515</v>
       </c>
       <c r="S13">
-        <v>0.001719386020135746</v>
+        <v>0.03027940350681191</v>
       </c>
       <c r="T13">
-        <v>0.002465574099394412</v>
+        <v>0.0450308594727787</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1254893333333333</v>
+        <v>0.07505833333333334</v>
       </c>
       <c r="H14">
-        <v>0.376468</v>
+        <v>0.225175</v>
       </c>
       <c r="I14">
-        <v>0.1349663317317043</v>
+        <v>0.1081722858928543</v>
       </c>
       <c r="J14">
-        <v>0.1574874166688978</v>
+        <v>0.12228228404354</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>3.1122635</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N14">
-        <v>6.224527</v>
+        <v>0.014572</v>
       </c>
       <c r="O14">
-        <v>0.2822077032432218</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P14">
-        <v>0.2312074682901326</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q14">
-        <v>0.3905558717726666</v>
+        <v>0.0003645833444444445</v>
       </c>
       <c r="R14">
-        <v>2.343335230636</v>
+        <v>0.0032812501</v>
       </c>
       <c r="S14">
-        <v>0.03808853849316703</v>
+        <v>4.880091992920425E-05</v>
       </c>
       <c r="T14">
-        <v>0.03641226689556908</v>
+        <v>7.25756492191117E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1254893333333333</v>
+        <v>0.07505833333333334</v>
       </c>
       <c r="H15">
-        <v>0.376468</v>
+        <v>0.225175</v>
       </c>
       <c r="I15">
-        <v>0.1349663317317043</v>
+        <v>0.1081722858928543</v>
       </c>
       <c r="J15">
-        <v>0.1574874166688978</v>
+        <v>0.12228228404354</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.013819333333334</v>
+        <v>3.609679</v>
       </c>
       <c r="N15">
-        <v>9.041458</v>
+        <v>7.219358</v>
       </c>
       <c r="O15">
-        <v>0.2732811768830042</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P15">
-        <v>0.3358411994729184</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q15">
-        <v>0.3782021789271111</v>
+        <v>0.2709364896083333</v>
       </c>
       <c r="R15">
-        <v>3.403819610344</v>
+        <v>1.62561893765</v>
       </c>
       <c r="S15">
-        <v>0.03688375797522209</v>
+        <v>0.03626591871722414</v>
       </c>
       <c r="T15">
-        <v>0.0528907629159739</v>
+        <v>0.03595591502849216</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1254893333333333</v>
+        <v>0.07505833333333334</v>
       </c>
       <c r="H16">
-        <v>0.376468</v>
+        <v>0.225175</v>
       </c>
       <c r="I16">
-        <v>0.1349663317317043</v>
+        <v>0.1081722858928543</v>
       </c>
       <c r="J16">
-        <v>0.1574874166688978</v>
+        <v>0.12228228404354</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,33 +1429,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01648566666666667</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N16">
-        <v>0.049457</v>
+        <v>0.000111</v>
       </c>
       <c r="O16">
-        <v>0.001494854830393808</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P16">
-        <v>0.001837059708990754</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q16">
-        <v>0.002068775319555555</v>
+        <v>2.777158333333334E-06</v>
       </c>
       <c r="R16">
-        <v>0.018618977876</v>
+        <v>2.4994425E-05</v>
       </c>
       <c r="S16">
-        <v>0.0002017550729296712</v>
+        <v>3.717336063780999E-07</v>
       </c>
       <c r="T16">
-        <v>0.0002893137878354709</v>
+        <v>5.528340010514273E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1254893333333333</v>
+        <v>0.097247</v>
       </c>
       <c r="H17">
-        <v>0.376468</v>
+        <v>0.194494</v>
       </c>
       <c r="I17">
-        <v>0.1349663317317043</v>
+        <v>0.1401500648769499</v>
       </c>
       <c r="J17">
-        <v>0.1574874166688978</v>
+        <v>0.1056208306995193</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.0507295</v>
+        <v>4.138389</v>
       </c>
       <c r="N17">
-        <v>6.101459</v>
+        <v>8.276778</v>
       </c>
       <c r="O17">
-        <v>0.2766280443193008</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P17">
-        <v>0.226636158581374</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q17">
-        <v>0.3828340111353333</v>
+        <v>0.402445915083</v>
       </c>
       <c r="R17">
-        <v>2.297004066812</v>
+        <v>1.609783660332</v>
       </c>
       <c r="S17">
-        <v>0.03733547239589134</v>
+        <v>0.05386897448024682</v>
       </c>
       <c r="T17">
-        <v>0.03569234313874324</v>
+        <v>0.03560566573420079</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1254893333333333</v>
+        <v>0.097247</v>
       </c>
       <c r="H18">
-        <v>0.376468</v>
+        <v>0.194494</v>
       </c>
       <c r="I18">
-        <v>0.1349663317317043</v>
+        <v>0.1401500648769499</v>
       </c>
       <c r="J18">
-        <v>0.1574874166688978</v>
+        <v>0.1056208306995193</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,90 +1553,90 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.763754333333333</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N18">
-        <v>5.291263</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O18">
-        <v>0.1599302435334539</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P18">
-        <v>0.1965417649063538</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q18">
-        <v>0.2213323554537777</v>
+        <v>0.2930848887086666</v>
       </c>
       <c r="R18">
-        <v>1.991991199084</v>
+        <v>1.758509332252</v>
       </c>
       <c r="S18">
-        <v>0.02158519830266839</v>
+        <v>0.0392305693726249</v>
       </c>
       <c r="T18">
-        <v>0.03095285482264749</v>
+        <v>0.03889522363627676</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1254893333333333</v>
+        <v>0.097247</v>
       </c>
       <c r="H19">
-        <v>0.376468</v>
+        <v>0.194494</v>
       </c>
       <c r="I19">
-        <v>0.1349663317317043</v>
+        <v>0.1401500648769499</v>
       </c>
       <c r="J19">
-        <v>0.1574874166688978</v>
+        <v>0.1056208306995193</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.07122033333333333</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N19">
-        <v>0.213661</v>
+        <v>0.014572</v>
       </c>
       <c r="O19">
-        <v>0.006457977190625621</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P19">
-        <v>0.00793634904023037</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q19">
-        <v>0.008937392149777776</v>
+        <v>0.0004723610946666667</v>
       </c>
       <c r="R19">
-        <v>0.080436529348</v>
+        <v>0.002834166568</v>
       </c>
       <c r="S19">
-        <v>0.0008716094918257573</v>
+        <v>6.322739727352493E-05</v>
       </c>
       <c r="T19">
-        <v>0.001249875108128567</v>
+        <v>6.26869249216028E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3435785</v>
+        <v>0.097247</v>
       </c>
       <c r="H20">
-        <v>0.687157</v>
+        <v>0.194494</v>
       </c>
       <c r="I20">
-        <v>0.3695256686375578</v>
+        <v>0.1401500648769499</v>
       </c>
       <c r="J20">
-        <v>0.2874575814569891</v>
+        <v>0.1056208306995193</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.1122635</v>
+        <v>3.609679</v>
       </c>
       <c r="N20">
-        <v>6.224527</v>
+        <v>7.219358</v>
       </c>
       <c r="O20">
-        <v>0.2822077032432218</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P20">
-        <v>0.2312074682901326</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q20">
-        <v>1.06930682493475</v>
+        <v>0.351030453713</v>
       </c>
       <c r="R20">
-        <v>4.277227299739001</v>
+        <v>1.404121814852</v>
       </c>
       <c r="S20">
-        <v>0.104282990235621</v>
+        <v>0.04698681200169507</v>
       </c>
       <c r="T20">
-        <v>0.06646233964947502</v>
+        <v>0.0310567768959767</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3435785</v>
+        <v>0.097247</v>
       </c>
       <c r="H21">
-        <v>0.687157</v>
+        <v>0.194494</v>
       </c>
       <c r="I21">
-        <v>0.3695256686375578</v>
+        <v>0.1401500648769499</v>
       </c>
       <c r="J21">
-        <v>0.2874575814569891</v>
+        <v>0.1056208306995193</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>3.013819333333334</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N21">
-        <v>9.041458</v>
+        <v>0.000111</v>
       </c>
       <c r="O21">
-        <v>0.2732811768830042</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P21">
-        <v>0.3358411994729184</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q21">
-        <v>1.035483525817667</v>
+        <v>3.598139E-06</v>
       </c>
       <c r="R21">
-        <v>6.212901154906</v>
+        <v>2.1588834E-05</v>
       </c>
       <c r="S21">
-        <v>0.1009844096137508</v>
+        <v>4.816251096185333E-07</v>
       </c>
       <c r="T21">
-        <v>0.09654009895409936</v>
+        <v>4.775081434461921E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.3435785</v>
+        <v>0.02916366666666667</v>
       </c>
       <c r="H22">
-        <v>0.687157</v>
+        <v>0.087491</v>
       </c>
       <c r="I22">
-        <v>0.3695256686375578</v>
+        <v>0.04202998319108123</v>
       </c>
       <c r="J22">
-        <v>0.2874575814569891</v>
+        <v>0.04751237621073989</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.01648566666666667</v>
+        <v>4.138389</v>
       </c>
       <c r="N22">
-        <v>0.049457</v>
+        <v>8.276778</v>
       </c>
       <c r="O22">
-        <v>0.001494854830393808</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P22">
-        <v>0.001837059708990754</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q22">
-        <v>0.005664120624833333</v>
+        <v>0.120690597333</v>
       </c>
       <c r="R22">
-        <v>0.033984723749</v>
+        <v>0.7241435839980001</v>
       </c>
       <c r="S22">
-        <v>0.0005523872307173548</v>
+        <v>0.01615491290648649</v>
       </c>
       <c r="T22">
-        <v>0.0005280767409385624</v>
+        <v>0.01601681954585211</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.3435785</v>
+        <v>0.02916366666666667</v>
       </c>
       <c r="H23">
-        <v>0.687157</v>
+        <v>0.087491</v>
       </c>
       <c r="I23">
-        <v>0.3695256686375578</v>
+        <v>0.04202998319108123</v>
       </c>
       <c r="J23">
-        <v>0.2874575814569891</v>
+        <v>0.04751237621073989</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.0507295</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N23">
-        <v>6.101459</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O23">
-        <v>0.2766280443193008</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P23">
-        <v>0.226636158581374</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q23">
-        <v>1.04816506551575</v>
+        <v>0.08789402243088887</v>
       </c>
       <c r="R23">
-        <v>4.192660262063</v>
+        <v>0.7910462018779999</v>
       </c>
       <c r="S23">
-        <v>0.1022211630409896</v>
+        <v>0.01176496188393241</v>
       </c>
       <c r="T23">
-        <v>0.06514828201650444</v>
+        <v>0.01749659121187024</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,117 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.3435785</v>
+        <v>0.02916366666666667</v>
       </c>
       <c r="H24">
-        <v>0.687157</v>
+        <v>0.087491</v>
       </c>
       <c r="I24">
-        <v>0.3695256686375578</v>
+        <v>0.04202998319108123</v>
       </c>
       <c r="J24">
-        <v>0.2874575814569891</v>
+        <v>0.04751237621073989</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>1.763754333333333</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N24">
-        <v>5.291263</v>
+        <v>0.014572</v>
       </c>
       <c r="O24">
-        <v>0.1599302435334539</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P24">
-        <v>0.1965417649063538</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q24">
-        <v>0.6059880682151666</v>
+        <v>0.0001416576502222222</v>
       </c>
       <c r="R24">
-        <v>3.635928409291</v>
+        <v>0.001274918852</v>
       </c>
       <c r="S24">
-        <v>0.059098330177067</v>
+        <v>1.896143570789834E-05</v>
       </c>
       <c r="T24">
-        <v>0.05649742039526862</v>
+        <v>2.819902798192207E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.3435785</v>
+        <v>0.02916366666666667</v>
       </c>
       <c r="H25">
-        <v>0.687157</v>
+        <v>0.087491</v>
       </c>
       <c r="I25">
-        <v>0.3695256686375578</v>
+        <v>0.04202998319108123</v>
       </c>
       <c r="J25">
-        <v>0.2874575814569891</v>
+        <v>0.04751237621073989</v>
       </c>
       <c r="K25">
         <v>2</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.07122033333333333</v>
+        <v>3.609679</v>
       </c>
       <c r="N25">
-        <v>0.213661</v>
+        <v>7.219358</v>
       </c>
       <c r="O25">
-        <v>0.006457977190625621</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P25">
-        <v>0.00793634904023037</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q25">
-        <v>0.02446977529616667</v>
+        <v>0.1052714751296667</v>
       </c>
       <c r="R25">
-        <v>0.146818651777</v>
+        <v>0.631628850778</v>
       </c>
       <c r="S25">
-        <v>0.002386388339412029</v>
+        <v>0.01409100252909363</v>
       </c>
       <c r="T25">
-        <v>0.002281363700703119</v>
+        <v>0.01397055162321664</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.06202233333333333</v>
+        <v>0.02916366666666667</v>
       </c>
       <c r="H26">
-        <v>0.186067</v>
+        <v>0.087491</v>
       </c>
       <c r="I26">
-        <v>0.06670628166623196</v>
+        <v>0.04202998319108123</v>
       </c>
       <c r="J26">
-        <v>0.07783718976734225</v>
+        <v>0.04751237621073989</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>3.1122635</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N26">
-        <v>6.224527</v>
+        <v>0.000111</v>
       </c>
       <c r="O26">
-        <v>0.2822077032432218</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P26">
-        <v>0.2312074682901326</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q26">
-        <v>0.1930298442181667</v>
+        <v>1.079055666666667E-06</v>
       </c>
       <c r="R26">
-        <v>1.158179065309</v>
+        <v>9.711500999999999E-06</v>
       </c>
       <c r="S26">
-        <v>0.01882502654092275</v>
+        <v>1.444358607999393E-07</v>
       </c>
       <c r="T26">
-        <v>0.01799653958492582</v>
+        <v>2.148018189674272E-07</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.06202233333333333</v>
+        <v>0.1019113333333333</v>
       </c>
       <c r="H27">
-        <v>0.186067</v>
+        <v>0.305734</v>
       </c>
       <c r="I27">
-        <v>0.06670628166623196</v>
+        <v>0.146872191207576</v>
       </c>
       <c r="J27">
-        <v>0.07783718976734225</v>
+        <v>0.1660302068602982</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.013819333333334</v>
+        <v>4.138389</v>
       </c>
       <c r="N27">
-        <v>9.041458</v>
+        <v>8.276778</v>
       </c>
       <c r="O27">
-        <v>0.2732811768830042</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P27">
-        <v>0.3358411994729184</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q27">
-        <v>0.1869241072984444</v>
+        <v>0.421748740842</v>
       </c>
       <c r="R27">
-        <v>1.682316965686</v>
+        <v>2.530492445052</v>
       </c>
       <c r="S27">
-        <v>0.01822957115923704</v>
+        <v>0.05645273391036496</v>
       </c>
       <c r="T27">
-        <v>0.02614093517506539</v>
+        <v>0.05597017186946714</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.06202233333333333</v>
+        <v>0.1019113333333333</v>
       </c>
       <c r="H28">
-        <v>0.186067</v>
+        <v>0.305734</v>
       </c>
       <c r="I28">
-        <v>0.06670628166623196</v>
+        <v>0.146872191207576</v>
       </c>
       <c r="J28">
-        <v>0.07783718976734225</v>
+        <v>0.1660302068602982</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.01648566666666667</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N28">
-        <v>0.049457</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O28">
-        <v>0.001494854830393808</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P28">
-        <v>0.001837059708990754</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q28">
-        <v>0.001022479513222222</v>
+        <v>0.3071423466857777</v>
       </c>
       <c r="R28">
-        <v>0.009202315619</v>
+        <v>2.764281120171999</v>
       </c>
       <c r="S28">
-        <v>9.971620736637676E-05</v>
+        <v>0.04111221561786003</v>
       </c>
       <c r="T28">
-        <v>0.0001429915651826518</v>
+        <v>0.06114117815055189</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.06202233333333333</v>
+        <v>0.1019113333333333</v>
       </c>
       <c r="H29">
-        <v>0.186067</v>
+        <v>0.305734</v>
       </c>
       <c r="I29">
-        <v>0.06670628166623196</v>
+        <v>0.146872191207576</v>
       </c>
       <c r="J29">
-        <v>0.07783718976734225</v>
+        <v>0.1660302068602982</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>3.0507295</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N29">
-        <v>6.101459</v>
+        <v>0.014572</v>
       </c>
       <c r="O29">
-        <v>0.2766280443193008</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P29">
-        <v>0.226636158581374</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q29">
-        <v>0.1892133619588333</v>
+        <v>0.0004950173164444445</v>
       </c>
       <c r="R29">
-        <v>1.135280171753</v>
+        <v>0.004455155848</v>
       </c>
       <c r="S29">
-        <v>0.01845282824114218</v>
+        <v>6.626002199904666E-05</v>
       </c>
       <c r="T29">
-        <v>0.01764072168363988</v>
+        <v>9.854043982838191E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.06202233333333333</v>
+        <v>0.1019113333333333</v>
       </c>
       <c r="H30">
-        <v>0.186067</v>
+        <v>0.305734</v>
       </c>
       <c r="I30">
-        <v>0.06670628166623196</v>
+        <v>0.146872191207576</v>
       </c>
       <c r="J30">
-        <v>0.07783718976734225</v>
+        <v>0.1660302068602982</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.763754333333333</v>
+        <v>3.609679</v>
       </c>
       <c r="N30">
-        <v>5.291263</v>
+        <v>7.219358</v>
       </c>
       <c r="O30">
-        <v>0.1599302435334539</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P30">
-        <v>0.1965417649063538</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q30">
-        <v>0.1093921591801111</v>
+        <v>0.3678671997953333</v>
       </c>
       <c r="R30">
-        <v>0.9845294326209999</v>
+        <v>2.207203198772</v>
       </c>
       <c r="S30">
-        <v>0.01066835187209165</v>
+        <v>0.04924047693168339</v>
       </c>
       <c r="T30">
-        <v>0.01529825865222423</v>
+        <v>0.04881956578359508</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,418 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.06202233333333333</v>
+        <v>0.1019113333333333</v>
       </c>
       <c r="H31">
-        <v>0.186067</v>
+        <v>0.305734</v>
       </c>
       <c r="I31">
-        <v>0.06670628166623196</v>
+        <v>0.146872191207576</v>
       </c>
       <c r="J31">
-        <v>0.07783718976734225</v>
+        <v>0.1660302068602982</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.07122033333333333</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N31">
-        <v>0.213661</v>
+        <v>0.000111</v>
       </c>
       <c r="O31">
-        <v>0.006457977190625621</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P31">
-        <v>0.00793634904023037</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q31">
-        <v>0.00441725125411111</v>
+        <v>3.770719333333333E-06</v>
       </c>
       <c r="R31">
-        <v>0.03975526128699999</v>
+        <v>3.3936474E-05</v>
       </c>
       <c r="S31">
-        <v>0.0004307876454719741</v>
+        <v>5.047256685351482E-07</v>
       </c>
       <c r="T31">
-        <v>0.0006177431063042758</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.09583999999999999</v>
-      </c>
-      <c r="H32">
-        <v>0.28752</v>
-      </c>
-      <c r="I32">
-        <v>0.1030778703621546</v>
-      </c>
-      <c r="J32">
-        <v>0.1202779042060454</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>3.1122635</v>
-      </c>
-      <c r="N32">
-        <v>6.224527</v>
-      </c>
-      <c r="O32">
-        <v>0.2822077032432218</v>
-      </c>
-      <c r="P32">
-        <v>0.2312074682901326</v>
-      </c>
-      <c r="Q32">
-        <v>0.29827933384</v>
-      </c>
-      <c r="R32">
-        <v>1.78967600304</v>
-      </c>
-      <c r="S32">
-        <v>0.0290893690501062</v>
-      </c>
-      <c r="T32">
-        <v>0.02780914972272284</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.09583999999999999</v>
-      </c>
-      <c r="H33">
-        <v>0.28752</v>
-      </c>
-      <c r="I33">
-        <v>0.1030778703621546</v>
-      </c>
-      <c r="J33">
-        <v>0.1202779042060454</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>3.013819333333334</v>
-      </c>
-      <c r="N33">
-        <v>9.041458</v>
-      </c>
-      <c r="O33">
-        <v>0.2732811768830042</v>
-      </c>
-      <c r="P33">
-        <v>0.3358411994729184</v>
-      </c>
-      <c r="Q33">
-        <v>0.2888444449066667</v>
-      </c>
-      <c r="R33">
-        <v>2.59960000416</v>
-      </c>
-      <c r="S33">
-        <v>0.02816924172316334</v>
-      </c>
-      <c r="T33">
-        <v>0.04039427561864704</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.09583999999999999</v>
-      </c>
-      <c r="H34">
-        <v>0.28752</v>
-      </c>
-      <c r="I34">
-        <v>0.1030778703621546</v>
-      </c>
-      <c r="J34">
-        <v>0.1202779042060454</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.01648566666666667</v>
-      </c>
-      <c r="N34">
-        <v>0.049457</v>
-      </c>
-      <c r="O34">
-        <v>0.001494854830393808</v>
-      </c>
-      <c r="P34">
-        <v>0.001837059708990754</v>
-      </c>
-      <c r="Q34">
-        <v>0.001579986293333333</v>
-      </c>
-      <c r="R34">
-        <v>0.01421987664</v>
-      </c>
-      <c r="S34">
-        <v>0.0001540864524175735</v>
-      </c>
-      <c r="T34">
-        <v>0.0002209576916987755</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.09583999999999999</v>
-      </c>
-      <c r="H35">
-        <v>0.28752</v>
-      </c>
-      <c r="I35">
-        <v>0.1030778703621546</v>
-      </c>
-      <c r="J35">
-        <v>0.1202779042060454</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>3.0507295</v>
-      </c>
-      <c r="N35">
-        <v>6.101459</v>
-      </c>
-      <c r="O35">
-        <v>0.2766280443193008</v>
-      </c>
-      <c r="P35">
-        <v>0.226636158581374</v>
-      </c>
-      <c r="Q35">
-        <v>0.29238191528</v>
-      </c>
-      <c r="R35">
-        <v>1.75429149168</v>
-      </c>
-      <c r="S35">
-        <v>0.02851422969088124</v>
-      </c>
-      <c r="T35">
-        <v>0.02725932217147661</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.09583999999999999</v>
-      </c>
-      <c r="H36">
-        <v>0.28752</v>
-      </c>
-      <c r="I36">
-        <v>0.1030778703621546</v>
-      </c>
-      <c r="J36">
-        <v>0.1202779042060454</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1.763754333333333</v>
-      </c>
-      <c r="N36">
-        <v>5.291263</v>
-      </c>
-      <c r="O36">
-        <v>0.1599302435334539</v>
-      </c>
-      <c r="P36">
-        <v>0.1965417649063538</v>
-      </c>
-      <c r="Q36">
-        <v>0.1690382153066667</v>
-      </c>
-      <c r="R36">
-        <v>1.52134393776</v>
-      </c>
-      <c r="S36">
-        <v>0.01648526890992917</v>
-      </c>
-      <c r="T36">
-        <v>0.02363963157189352</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.09583999999999999</v>
-      </c>
-      <c r="H37">
-        <v>0.28752</v>
-      </c>
-      <c r="I37">
-        <v>0.1030778703621546</v>
-      </c>
-      <c r="J37">
-        <v>0.1202779042060454</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M37">
-        <v>0.07122033333333333</v>
-      </c>
-      <c r="N37">
-        <v>0.213661</v>
-      </c>
-      <c r="O37">
-        <v>0.006457977190625621</v>
-      </c>
-      <c r="P37">
-        <v>0.00793634904023037</v>
-      </c>
-      <c r="Q37">
-        <v>0.006825756746666666</v>
-      </c>
-      <c r="R37">
-        <v>0.06143181071999999</v>
-      </c>
-      <c r="S37">
-        <v>0.0006656745356570591</v>
-      </c>
-      <c r="T37">
-        <v>0.0009545674296065686</v>
+        <v>7.506168556787257E-07</v>
       </c>
     </row>
   </sheetData>
